--- a/Week1.xlsx
+++ b/Week1.xlsx
@@ -452,7 +452,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
